--- a/.github/workflows/script/owner.xlsx
+++ b/.github/workflows/script/owner.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/wenxin_zhang_intel_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenxinzh\Vincy\.github\workflows\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{F8719EF3-637E-4D6F-9053-8775C3214AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D79CE4D1-9A29-4B3C-9C71-33953899440F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6F1DBD-7443-482E-BF2E-4E87FBFACBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12707" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{5D5D46DA-D44A-4B5A-9858-E447035C8B54}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="69">
   <si>
     <t>FW</t>
   </si>
@@ -143,9 +143,6 @@
     <t>frontend</t>
   </si>
   <si>
-    <t>wenjiao.yue@intel.com</t>
-  </si>
-  <si>
     <t>backend</t>
   </si>
   <si>
@@ -204,6 +201,48 @@
   </si>
   <si>
     <t>requirement</t>
+  </si>
+  <si>
+    <t>changwangss</t>
+  </si>
+  <si>
+    <t>lkk12014402</t>
+  </si>
+  <si>
+    <t>n1ck-guo</t>
+  </si>
+  <si>
+    <t>Spycsh</t>
+  </si>
+  <si>
+    <t>zhenwei-intel</t>
+  </si>
+  <si>
+    <t>mengniwang95</t>
+  </si>
+  <si>
+    <t>lvliang-intel</t>
+  </si>
+  <si>
+    <t>PenghuiCheng</t>
+  </si>
+  <si>
+    <t>XuhuiRen</t>
+  </si>
+  <si>
+    <t>XinyuYe-Intel</t>
+  </si>
+  <si>
+    <t>yuwenzho</t>
+  </si>
+  <si>
+    <t>VincyZhang</t>
+  </si>
+  <si>
+    <t>Liangyx2</t>
+  </si>
+  <si>
+    <t>letonghan</t>
   </si>
 </sst>
 </file>
@@ -566,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8D669E-4B85-467F-9D45-7FECBE13E5E8}">
-  <dimension ref="A2:E45"/>
+  <dimension ref="A2:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -581,7 +620,7 @@
     <col min="5" max="5" width="22.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -589,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -598,7 +637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -611,8 +650,11 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -625,8 +667,11 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -639,8 +684,11 @@
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -653,8 +701,11 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -667,8 +718,11 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -681,8 +735,11 @@
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -695,8 +752,11 @@
       <c r="E9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -709,8 +769,11 @@
       <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -718,13 +781,16 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -737,8 +803,11 @@
       <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -751,8 +820,11 @@
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -765,8 +837,11 @@
       <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -779,8 +854,11 @@
       <c r="E15" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -793,8 +871,11 @@
       <c r="E16" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -807,8 +888,11 @@
       <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -821,8 +905,11 @@
       <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -835,8 +922,11 @@
       <c r="E19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -849,8 +939,11 @@
       <c r="E20" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -863,8 +956,11 @@
       <c r="E21" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -877,8 +973,11 @@
       <c r="E22" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -889,24 +988,30 @@
         <v>34</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -914,13 +1019,16 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -933,63 +1041,81 @@
       <c r="E26" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
         <v>41</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
         <v>44</v>
-      </c>
-      <c r="E30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>45</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -999,10 +1125,13 @@
       <c r="E32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -1010,32 +1139,41 @@
       <c r="E33" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
         <v>41</v>
       </c>
-      <c r="E35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -1043,77 +1181,107 @@
       <c r="E36" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="E38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>14</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="F39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>20</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
+      <c r="E41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
         <v>52</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B42" t="s">
-        <v>53</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="F44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>14</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="F45" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1133,24 +1301,24 @@
     <hyperlink ref="E20" r:id="rId13" xr:uid="{3E8ABC9E-96A8-4DD9-8DEB-84F5D29786CD}"/>
     <hyperlink ref="E21" r:id="rId14" xr:uid="{923346BC-12CE-4B28-9B90-97A9A0B2B0AB}"/>
     <hyperlink ref="E22" r:id="rId15" xr:uid="{8C057B4C-E8DB-4EDD-8349-C0400844A664}"/>
-    <hyperlink ref="E23" r:id="rId16" xr:uid="{1697AA51-F8D2-4EFE-8DAC-9DB0A14CDD60}"/>
-    <hyperlink ref="E24" r:id="rId17" xr:uid="{2845ABD6-2D5B-4035-B461-98C218CC3CA5}"/>
-    <hyperlink ref="E25" r:id="rId18" xr:uid="{F91A6FF7-826B-495F-8B7E-35ED504D09C2}"/>
-    <hyperlink ref="E11" r:id="rId19" xr:uid="{B9C47DB5-8F8E-43A8-88EA-93F20F14798B}"/>
-    <hyperlink ref="E26" r:id="rId20" xr:uid="{F194A4DE-4F2C-40D7-8D12-61E520FBA647}"/>
-    <hyperlink ref="E27" r:id="rId21" xr:uid="{1F32F152-FD7F-401A-B563-B520F181C8B2}"/>
-    <hyperlink ref="E29" r:id="rId22" xr:uid="{8119F363-F327-4B46-AA51-735080D7DC53}"/>
-    <hyperlink ref="E31" r:id="rId23" xr:uid="{881196E3-2366-4409-A382-D156F97D43DF}"/>
-    <hyperlink ref="E33" r:id="rId24" xr:uid="{D0A0D9CA-F590-46EF-B1FF-943431B0E6A0}"/>
-    <hyperlink ref="E36" r:id="rId25" xr:uid="{E28D0E03-0455-4DA8-8872-2CB02EC685E6}"/>
-    <hyperlink ref="E37" r:id="rId26" xr:uid="{8B7E051A-DDC3-45D8-8F54-F58FE13A9EA9}"/>
-    <hyperlink ref="E38" r:id="rId27" xr:uid="{E1CD84D7-8FC8-4ECE-952A-23D92CD69C14}"/>
-    <hyperlink ref="E40" r:id="rId28" xr:uid="{0AA87646-681A-4035-B948-BFDE80D3002C}"/>
-    <hyperlink ref="E41" r:id="rId29" xr:uid="{7CEF7506-9ACE-4F15-8333-83AB1773CB82}"/>
-    <hyperlink ref="E43" r:id="rId30" xr:uid="{13494B2E-400C-485B-A109-AB55C95F60C1}"/>
-    <hyperlink ref="E44" r:id="rId31" xr:uid="{4BE9FBED-2AF5-4296-ACE4-B0D8C478D78C}"/>
-    <hyperlink ref="E39" r:id="rId32" xr:uid="{C553449D-369F-4AFE-A949-31E2DDFF8ADC}"/>
-    <hyperlink ref="E45" r:id="rId33" xr:uid="{955EF36C-027E-4B45-AF88-D127609E5550}"/>
+    <hyperlink ref="E24" r:id="rId16" xr:uid="{2845ABD6-2D5B-4035-B461-98C218CC3CA5}"/>
+    <hyperlink ref="E25" r:id="rId17" xr:uid="{F91A6FF7-826B-495F-8B7E-35ED504D09C2}"/>
+    <hyperlink ref="E11" r:id="rId18" xr:uid="{B9C47DB5-8F8E-43A8-88EA-93F20F14798B}"/>
+    <hyperlink ref="E26" r:id="rId19" xr:uid="{F194A4DE-4F2C-40D7-8D12-61E520FBA647}"/>
+    <hyperlink ref="E27" r:id="rId20" xr:uid="{1F32F152-FD7F-401A-B563-B520F181C8B2}"/>
+    <hyperlink ref="E29" r:id="rId21" xr:uid="{8119F363-F327-4B46-AA51-735080D7DC53}"/>
+    <hyperlink ref="E31" r:id="rId22" xr:uid="{881196E3-2366-4409-A382-D156F97D43DF}"/>
+    <hyperlink ref="E33" r:id="rId23" xr:uid="{D0A0D9CA-F590-46EF-B1FF-943431B0E6A0}"/>
+    <hyperlink ref="E36" r:id="rId24" xr:uid="{E28D0E03-0455-4DA8-8872-2CB02EC685E6}"/>
+    <hyperlink ref="E37" r:id="rId25" xr:uid="{8B7E051A-DDC3-45D8-8F54-F58FE13A9EA9}"/>
+    <hyperlink ref="E38" r:id="rId26" xr:uid="{E1CD84D7-8FC8-4ECE-952A-23D92CD69C14}"/>
+    <hyperlink ref="E40" r:id="rId27" xr:uid="{0AA87646-681A-4035-B948-BFDE80D3002C}"/>
+    <hyperlink ref="E41" r:id="rId28" xr:uid="{7CEF7506-9ACE-4F15-8333-83AB1773CB82}"/>
+    <hyperlink ref="E43" r:id="rId29" xr:uid="{13494B2E-400C-485B-A109-AB55C95F60C1}"/>
+    <hyperlink ref="E44" r:id="rId30" xr:uid="{4BE9FBED-2AF5-4296-ACE4-B0D8C478D78C}"/>
+    <hyperlink ref="E39" r:id="rId31" xr:uid="{C553449D-369F-4AFE-A949-31E2DDFF8ADC}"/>
+    <hyperlink ref="E45" r:id="rId32" xr:uid="{955EF36C-027E-4B45-AF88-D127609E5550}"/>
+    <hyperlink ref="E23" r:id="rId33" xr:uid="{885A142E-7C6F-47E8-B885-1E6D881E6035}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
